--- a/stats_region.xlsx
+++ b/stats_region.xlsx
@@ -451,25 +451,25 @@
         <v>43871</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0126256363620472</v>
+        <v>0.0135406646415844</v>
       </c>
       <c r="G2" t="n">
-        <v>0.699136370231584</v>
+        <v>1.00619485639197</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00198514565936229</v>
+        <v>0.00196336990767471</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00820514375731883</v>
+        <v>0.00861649090764852</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000426522820766044</v>
+        <v>0.000414262513320785</v>
       </c>
     </row>
     <row r="3">
@@ -486,25 +486,25 @@
         <v>43871</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F3" t="n">
-        <v>0.101454371391784</v>
+        <v>0.103935692392368</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13330533789194</v>
+        <v>1.39045246368396</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0456307540447083</v>
+        <v>0.0457945946206097</v>
       </c>
       <c r="J3" t="n">
-        <v>0.136340689407087</v>
+        <v>0.137297394402522</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0140840514243875</v>
+        <v>0.0137871562209999</v>
       </c>
     </row>
     <row r="4">
@@ -521,25 +521,25 @@
         <v>43871</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.10767691033591</v>
+        <v>0.112483257021618</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97964956682087</v>
+        <v>2.40966284884659</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0112411527964102</v>
+        <v>-0.0119310649580203</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0396008002137674</v>
+        <v>0.0392412304075698</v>
       </c>
       <c r="J4" t="n">
-        <v>0.143768739092944</v>
+        <v>0.144118176905062</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00611236459907884</v>
+        <v>0.00598365806940942</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         <v>43871</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.279812057291336</v>
+        <v>0.290083895429395</v>
       </c>
       <c r="G5" t="n">
-        <v>11.2169312169312</v>
+        <v>14.2222222222222</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.188894558496374</v>
+        <v>0.186934849799873</v>
       </c>
       <c r="J5" t="n">
-        <v>0.390726341858326</v>
+        <v>0.392035473943881</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0737611479916851</v>
+        <v>0.0722292075782106</v>
       </c>
     </row>
     <row r="6">
@@ -588,28 +588,28 @@
         <v>5019</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>43871</v>
+        <v>43878</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F6" t="n">
-        <v>0.131162999966067</v>
+        <v>0.135210958198813</v>
       </c>
       <c r="G6" t="n">
-        <v>1.55888967620691</v>
+        <v>1.74235782893734</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0293556436224864</v>
+        <v>0.0290100042592723</v>
       </c>
       <c r="J6" t="n">
-        <v>0.166290129724143</v>
+        <v>0.166449080132706</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00143286481644322</v>
+        <v>0.0013281937486539</v>
       </c>
     </row>
   </sheetData>

--- a/stats_region.xlsx
+++ b/stats_region.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">region</t>
   </si>
@@ -20,7 +20,19 @@
     <t xml:space="preserve">""</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">n_ascert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_daily_cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_zeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_1to9</t>
   </si>
   <si>
     <t xml:space="preserve">min_date</t>
@@ -436,179 +448,251 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>44418</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>44907</v>
+      <c r="D2" t="n">
+        <v>44688</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7197</v>
       </c>
       <c r="F2" t="n">
+        <v>3441</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12820</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.0135406646415844</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>1.00619485639197</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>0.00196336990767471</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>0.00861649090764852</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.000414262513320785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>27030</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>44907</v>
+      <c r="D3" t="n">
+        <v>27192</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3939</v>
       </c>
       <c r="F3" t="n">
+        <v>973</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2211</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.103935692392368</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>1.39045246368396</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>0.0457945946206097</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>0.137297394402522</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.0137871562209999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>40589</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>44907</v>
+      <c r="D4" t="n">
+        <v>40831</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5289</v>
       </c>
       <c r="F4" t="n">
+        <v>2438</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3590</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.112483257021618</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>2.40966284884659</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>-0.0119310649580203</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>0.0392412304075698</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>0.144118176905062</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.00598365806940942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>40369</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>44907</v>
+      <c r="D5" t="n">
+        <v>40609</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5511</v>
       </c>
       <c r="F5" t="n">
+        <v>751</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1788</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.290083895429395</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>14.2222222222222</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>0.186934849799873</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>0.392035473943881</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.0722292075782106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>5019</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>43878</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>44907</v>
+      <c r="D6" t="n">
+        <v>5049</v>
+      </c>
+      <c r="E6" t="n">
+        <v>716</v>
       </c>
       <c r="F6" t="n">
+        <v>1240</v>
+      </c>
+      <c r="G6" t="n">
+        <v>932</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.135210958198813</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>1.74235782893734</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>0.0290100042592723</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.166449080132706</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.0013281937486539</v>
       </c>
     </row>
